--- a/output/VERDE_22187998000118.xlsx
+++ b/output/VERDE_22187998000118.xlsx
@@ -1131,10 +1131,10 @@
         <v>44165</v>
       </c>
       <c r="B68">
-        <v>0.6893462590036457</v>
+        <v>0.6896937170935584</v>
       </c>
       <c r="C68">
-        <v>0.03655520500292231</v>
+        <v>0.03676839959799105</v>
       </c>
     </row>
   </sheetData>

--- a/output/VERDE_22187998000118.xlsx
+++ b/output/VERDE_22187998000118.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>VERDE AM VII FUNDO DE INVESTIMENTO EM COTAS DE FUNDO DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,755 +383,554 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>42155</v>
       </c>
       <c r="B2">
-        <v>0.02633247276656814</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>42185</v>
       </c>
       <c r="B3">
-        <v>0.02442362889060901</v>
-      </c>
-      <c r="C3">
         <v>-0.001859868928061559</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>42216</v>
       </c>
       <c r="B4">
-        <v>0.07939749600133106</v>
-      </c>
-      <c r="C4">
         <v>0.05366321662284923</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>42247</v>
       </c>
       <c r="B5">
-        <v>0.07572646855180465</v>
-      </c>
-      <c r="C5">
         <v>-0.003400996818248903</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>42277</v>
       </c>
       <c r="B6">
-        <v>0.09017517304853162</v>
-      </c>
-      <c r="C6">
         <v>0.01343157849056054</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>42308</v>
       </c>
       <c r="B7">
-        <v>0.1070251532875064</v>
-      </c>
-      <c r="C7">
         <v>0.01545621351094972</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>42338</v>
       </c>
       <c r="B8">
-        <v>0.1340895783452218</v>
-      </c>
-      <c r="C8">
         <v>0.02444788628094208</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>42369</v>
       </c>
       <c r="B9">
-        <v>0.145434670205403</v>
-      </c>
-      <c r="C9">
         <v>0.01000369995175787</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>42400</v>
       </c>
       <c r="B10">
-        <v>0.1575411948314993</v>
-      </c>
-      <c r="C10">
         <v>0.01056937155911775</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>42429</v>
       </c>
       <c r="B11">
-        <v>0.1657156852417607</v>
-      </c>
-      <c r="C11">
         <v>0.007061943407941751</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>42460</v>
       </c>
       <c r="B12">
-        <v>0.1363671979999421</v>
-      </c>
-      <c r="C12">
         <v>-0.02517636814308799</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>42490</v>
       </c>
       <c r="B13">
-        <v>0.1558744011694237</v>
-      </c>
-      <c r="C13">
         <v>0.01716628498588757</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>42521</v>
       </c>
       <c r="B14">
-        <v>0.1729494651705563</v>
-      </c>
-      <c r="C14">
         <v>0.01477242162630943</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>42551</v>
       </c>
       <c r="B15">
-        <v>0.1930845619759689</v>
-      </c>
-      <c r="C15">
         <v>0.01716620997178664</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>42582</v>
       </c>
       <c r="B16">
-        <v>0.2143033192080035</v>
-      </c>
-      <c r="C16">
         <v>0.0177847890319629</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>42613</v>
       </c>
       <c r="B17">
-        <v>0.2335891827030838</v>
-      </c>
-      <c r="C17">
         <v>0.01588224555596129</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>42643</v>
       </c>
       <c r="B18">
-        <v>0.247868627448798</v>
-      </c>
-      <c r="C18">
         <v>0.01157552688199215</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>42674</v>
       </c>
       <c r="B19">
-        <v>0.2609405870277615</v>
-      </c>
-      <c r="C19">
         <v>0.01047542929714362</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>42704</v>
       </c>
       <c r="B20">
-        <v>0.2734124131890248</v>
-      </c>
-      <c r="C20">
         <v>0.009890891204209273</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>42735</v>
       </c>
       <c r="B21">
-        <v>0.3132762214909222</v>
-      </c>
-      <c r="C21">
         <v>0.0313047115679248</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>42766</v>
       </c>
       <c r="B22">
-        <v>0.3141216769829778</v>
-      </c>
-      <c r="C22">
         <v>0.0006437758319386422</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>42794</v>
       </c>
       <c r="B23">
-        <v>0.3314157869831291</v>
-      </c>
-      <c r="C23">
         <v>0.01316020449480448</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>42825</v>
       </c>
       <c r="B24">
-        <v>0.3455867206449439</v>
-      </c>
-      <c r="C24">
         <v>0.01064350731030816</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>42855</v>
       </c>
       <c r="B25">
-        <v>0.3509329406561077</v>
-      </c>
-      <c r="C25">
         <v>0.003973151584463652</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>42886</v>
       </c>
       <c r="B26">
-        <v>0.3383718298075327</v>
-      </c>
-      <c r="C26">
         <v>-0.009298100942356502</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>42916</v>
       </c>
       <c r="B27">
-        <v>0.3438070309313257</v>
-      </c>
-      <c r="C27">
         <v>0.004061054635746908</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>42947</v>
       </c>
       <c r="B28">
-        <v>0.3686684145147692</v>
-      </c>
-      <c r="C28">
         <v>0.01850070955962568</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>42978</v>
       </c>
       <c r="B29">
-        <v>0.3730684934306947</v>
-      </c>
-      <c r="C29">
         <v>0.003214861152096793</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43008</v>
       </c>
       <c r="B30">
-        <v>0.3795680273929602</v>
-      </c>
-      <c r="C30">
         <v>0.004733583206782299</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43039</v>
       </c>
       <c r="B31">
-        <v>0.3737118693754569</v>
-      </c>
-      <c r="C31">
         <v>-0.004244921527045031</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43069</v>
       </c>
       <c r="B32">
-        <v>0.3672155398126224</v>
-      </c>
-      <c r="C32">
         <v>-0.004729033582411946</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>43100</v>
       </c>
       <c r="B33">
-        <v>0.3751345215313886</v>
-      </c>
-      <c r="C33">
         <v>0.00579205069586286</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>43131</v>
       </c>
       <c r="B34">
-        <v>0.4164489445905708</v>
-      </c>
-      <c r="C34">
         <v>0.03004391382246241</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>43159</v>
       </c>
       <c r="B35">
-        <v>0.4176228004285532</v>
-      </c>
-      <c r="C35">
         <v>0.0008287314854977801</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>43190</v>
       </c>
       <c r="B36">
-        <v>0.425227649811492</v>
-      </c>
-      <c r="C36">
         <v>0.00536450837320035</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>43220</v>
       </c>
       <c r="B37">
-        <v>0.4220888225117223</v>
-      </c>
-      <c r="C37">
         <v>-0.002202333992176508</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>43251</v>
       </c>
       <c r="B38">
-        <v>0.3958593627542402</v>
-      </c>
-      <c r="C38">
         <v>-0.01844431890770026</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>43281</v>
       </c>
       <c r="B39">
-        <v>0.3992971436556889</v>
-      </c>
-      <c r="C39">
         <v>0.002462841883057232</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>43312</v>
       </c>
       <c r="B40">
-        <v>0.4140858855278564</v>
-      </c>
-      <c r="C40">
         <v>0.01056869296076157</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>43343</v>
       </c>
       <c r="B41">
-        <v>0.4232442614856049</v>
-      </c>
-      <c r="C41">
         <v>0.006476534453442984</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>43373</v>
       </c>
       <c r="B42">
-        <v>0.4184095648152355</v>
-      </c>
-      <c r="C42">
         <v>-0.003396954971961685</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>43404</v>
       </c>
       <c r="B43">
-        <v>0.471242791914295</v>
-      </c>
-      <c r="C43">
         <v>0.03724821688292934</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>43434</v>
       </c>
       <c r="B44">
-        <v>0.4787930315848206</v>
-      </c>
-      <c r="C44">
         <v>0.005131878784399468</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>43465</v>
       </c>
       <c r="B45">
-        <v>0.4763124216587582</v>
-      </c>
-      <c r="C45">
         <v>-0.001677455785279114</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>43496</v>
       </c>
       <c r="B46">
-        <v>0.5318915829567912</v>
-      </c>
-      <c r="C46">
         <v>0.03764728961339037</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>43524</v>
       </c>
       <c r="B47">
-        <v>0.5320267074212306</v>
-      </c>
-      <c r="C47">
         <v>8.820758984695587e-05</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>43555</v>
       </c>
       <c r="B48">
-        <v>0.5378193845994743</v>
-      </c>
-      <c r="C48">
         <v>0.003781054958235108</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>43585</v>
       </c>
       <c r="B49">
-        <v>0.5505884778364005</v>
-      </c>
-      <c r="C49">
         <v>0.00830337643341128</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>43616</v>
       </c>
       <c r="B50">
-        <v>0.5726528254825716</v>
-      </c>
-      <c r="C50">
         <v>0.01422966052021635</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>43646</v>
       </c>
       <c r="B51">
-        <v>0.5962857097850993</v>
-      </c>
-      <c r="C51">
         <v>0.01502740078394349</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>43677</v>
       </c>
       <c r="B52">
-        <v>0.6024860203015232</v>
-      </c>
-      <c r="C52">
         <v>0.003884211002088467</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>43708</v>
       </c>
       <c r="B53">
-        <v>0.6045789653574403</v>
-      </c>
-      <c r="C53">
         <v>0.00130606135055289</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>43738</v>
       </c>
       <c r="B54">
-        <v>0.6251291162155057</v>
-      </c>
-      <c r="C54">
         <v>0.01280719198103641</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>43769</v>
       </c>
       <c r="B55">
-        <v>0.6390468348612079</v>
-      </c>
-      <c r="C55">
         <v>0.008564069467977387</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>43799</v>
       </c>
       <c r="B56">
-        <v>0.6385597661476516</v>
-      </c>
-      <c r="C56">
         <v>-0.0002971658302842739</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>43830</v>
       </c>
       <c r="B57">
-        <v>0.6694886969195029</v>
-      </c>
-      <c r="C57">
         <v>0.01887568058903755</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>43861</v>
       </c>
       <c r="B58">
-        <v>0.665597948860551</v>
-      </c>
-      <c r="C58">
         <v>-0.002330502785751642</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>43890</v>
       </c>
       <c r="B59">
-        <v>0.6173819240367771</v>
-      </c>
-      <c r="C59">
         <v>-0.02894817735381994</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>43921</v>
       </c>
       <c r="B60">
-        <v>0.4314196288893948</v>
-      </c>
-      <c r="C60">
         <v>-0.1149773546888939</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>43951</v>
       </c>
       <c r="B61">
-        <v>0.5539840955874376</v>
-      </c>
-      <c r="C61">
         <v>0.08562441385070119</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>43982</v>
       </c>
       <c r="B62">
-        <v>0.5925071494367626</v>
-      </c>
-      <c r="C62">
         <v>0.02478986365350311</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>44012</v>
       </c>
       <c r="B63">
-        <v>0.6063206745051672</v>
-      </c>
-      <c r="C63">
         <v>0.008674074131026721</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>44043</v>
       </c>
       <c r="B64">
-        <v>0.6384752037331862</v>
-      </c>
-      <c r="C64">
         <v>0.02001750319121332</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>44074</v>
       </c>
       <c r="B65">
-        <v>0.6595625805885377</v>
-      </c>
-      <c r="C65">
         <v>0.012870122664844</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>44104</v>
       </c>
       <c r="B66">
-        <v>0.638577204826662</v>
-      </c>
-      <c r="C66">
         <v>-0.01264512468968393</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>44135</v>
       </c>
       <c r="B67">
-        <v>0.6297696937413797</v>
-      </c>
-      <c r="C67">
         <v>-0.005375096796988554</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>44165</v>
       </c>
       <c r="B68">
-        <v>0.6896937170935584</v>
-      </c>
-      <c r="C68">
-        <v>0.03676839959799105</v>
+        <v>0.02995262986222746</v>
       </c>
     </row>
   </sheetData>
